--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N2">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P2">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q2">
-        <v>1272.686217995506</v>
+        <v>1640.625660280524</v>
       </c>
       <c r="R2">
-        <v>11454.17596195956</v>
+        <v>14765.63094252471</v>
       </c>
       <c r="S2">
-        <v>0.006118273369924753</v>
+        <v>0.00771054030422371</v>
       </c>
       <c r="T2">
-        <v>0.006118273369924753</v>
+        <v>0.007710540304223711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P3">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q3">
-        <v>1648.302808797617</v>
+        <v>1445.48581378431</v>
       </c>
       <c r="R3">
-        <v>14834.72527917856</v>
+        <v>13009.37232405879</v>
       </c>
       <c r="S3">
-        <v>0.007924001248730612</v>
+        <v>0.006793430638200438</v>
       </c>
       <c r="T3">
-        <v>0.007924001248730614</v>
+        <v>0.006793430638200438</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N4">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P4">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q4">
-        <v>468.6049215003638</v>
+        <v>456.0918942514767</v>
       </c>
       <c r="R4">
-        <v>4217.444293503275</v>
+        <v>4104.827048263291</v>
       </c>
       <c r="S4">
-        <v>0.002252757177450223</v>
+        <v>0.002143520620331174</v>
       </c>
       <c r="T4">
-        <v>0.002252757177450223</v>
+        <v>0.002143520620331174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N5">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P5">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q5">
-        <v>1033.898921243642</v>
+        <v>606.3724417706441</v>
       </c>
       <c r="R5">
-        <v>9305.090291192777</v>
+        <v>5457.351975935796</v>
       </c>
       <c r="S5">
-        <v>0.004970334515762972</v>
+        <v>0.002849802526460337</v>
       </c>
       <c r="T5">
-        <v>0.004970334515762973</v>
+        <v>0.002849802526460337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N6">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P6">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q6">
-        <v>52754.75606967117</v>
+        <v>77548.41805925308</v>
       </c>
       <c r="R6">
-        <v>474792.8046270405</v>
+        <v>697935.7625332777</v>
       </c>
       <c r="S6">
-        <v>0.2536116244790552</v>
+        <v>0.364458643705732</v>
       </c>
       <c r="T6">
-        <v>0.2536116244790552</v>
+        <v>0.3644586437057321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P7">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q7">
-        <v>68324.62815856404</v>
+        <v>68324.62815856401</v>
       </c>
       <c r="R7">
-        <v>614921.6534270763</v>
+        <v>614921.6534270761</v>
       </c>
       <c r="S7">
-        <v>0.3284617583358079</v>
+        <v>0.3211090817009575</v>
       </c>
       <c r="T7">
-        <v>0.3284617583358079</v>
+        <v>0.3211090817009575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N8">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P8">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q8">
-        <v>19424.37812026844</v>
+        <v>21558.36382737213</v>
       </c>
       <c r="R8">
-        <v>174819.403082416</v>
+        <v>194025.2744463492</v>
       </c>
       <c r="S8">
-        <v>0.09338016999018611</v>
+        <v>0.1013190499261416</v>
       </c>
       <c r="T8">
-        <v>0.0933801699901861</v>
+        <v>0.1013190499261416</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N9">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P9">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q9">
-        <v>42856.66381836868</v>
+        <v>28661.76285820112</v>
       </c>
       <c r="R9">
-        <v>385709.9743653181</v>
+        <v>257955.86572381</v>
       </c>
       <c r="S9">
-        <v>0.2060278340852345</v>
+        <v>0.1347032922004124</v>
       </c>
       <c r="T9">
-        <v>0.2060278340852345</v>
+        <v>0.1347032922004124</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N10">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P10">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q10">
-        <v>2667.351668555595</v>
+        <v>4298.703763235628</v>
       </c>
       <c r="R10">
-        <v>24006.16501700035</v>
+        <v>38688.33386912065</v>
       </c>
       <c r="S10">
-        <v>0.01282294602643813</v>
+        <v>0.02020285883903527</v>
       </c>
       <c r="T10">
-        <v>0.01282294602643813</v>
+        <v>0.02020285883903527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P11">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q11">
-        <v>3454.585415606914</v>
+        <v>3787.405901207148</v>
       </c>
       <c r="R11">
-        <v>31091.26874046222</v>
+        <v>34086.65311086433</v>
       </c>
       <c r="S11">
-        <v>0.0166074698174447</v>
+        <v>0.01779988363995181</v>
       </c>
       <c r="T11">
-        <v>0.0166074698174447</v>
+        <v>0.01779988363995182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N12">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P12">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q12">
-        <v>982.1227743206159</v>
+        <v>1195.034302867635</v>
       </c>
       <c r="R12">
-        <v>8839.104968885544</v>
+        <v>10755.30872580872</v>
       </c>
       <c r="S12">
-        <v>0.004721427427403524</v>
+        <v>0.005616369644989741</v>
       </c>
       <c r="T12">
-        <v>0.004721427427403523</v>
+        <v>0.005616369644989743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N13">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P13">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q13">
-        <v>2166.89076514129</v>
+        <v>1588.793568495174</v>
       </c>
       <c r="R13">
-        <v>19502.01688627161</v>
+        <v>14299.14211645657</v>
       </c>
       <c r="S13">
-        <v>0.0104170453615666</v>
+        <v>0.007466942119434362</v>
       </c>
       <c r="T13">
-        <v>0.0104170453615666</v>
+        <v>0.007466942119434362</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.22896466666667</v>
+        <v>45.90594266666667</v>
       </c>
       <c r="N14">
-        <v>93.686894</v>
+        <v>137.717828</v>
       </c>
       <c r="O14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633582</v>
       </c>
       <c r="P14">
-        <v>0.2877106972998645</v>
+        <v>0.3954672001633583</v>
       </c>
       <c r="Q14">
-        <v>3153.04498202345</v>
+        <v>658.5782983034566</v>
       </c>
       <c r="R14">
-        <v>28377.40483821105</v>
+        <v>5927.204684731108</v>
       </c>
       <c r="S14">
-        <v>0.01515785342444642</v>
+        <v>0.003095157314367253</v>
       </c>
       <c r="T14">
-        <v>0.01515785342444642</v>
+        <v>0.003095157314367253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.3726247238124505</v>
+        <v>0.3484294080560655</v>
       </c>
       <c r="P15">
-        <v>0.3726247238124506</v>
+        <v>0.3484294080560656</v>
       </c>
       <c r="Q15">
-        <v>4083.624719626559</v>
+        <v>580.2454578828698</v>
       </c>
       <c r="R15">
-        <v>36752.62247663904</v>
+        <v>5222.209120945828</v>
       </c>
       <c r="S15">
-        <v>0.01963149441046735</v>
+        <v>0.002727012076955822</v>
       </c>
       <c r="T15">
-        <v>0.01963149441046736</v>
+        <v>0.002727012076955823</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.49855033333333</v>
+        <v>12.761795</v>
       </c>
       <c r="N16">
-        <v>34.495651</v>
+        <v>38.28538500000001</v>
       </c>
       <c r="O16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="P16">
-        <v>0.1059354983315251</v>
+        <v>0.1099393900775594</v>
       </c>
       <c r="Q16">
-        <v>1160.955760655084</v>
+        <v>183.0839483119984</v>
       </c>
       <c r="R16">
-        <v>10448.60184589576</v>
+        <v>1647.755534807985</v>
       </c>
       <c r="S16">
-        <v>0.005581143736485262</v>
+        <v>0.0008604498860969279</v>
       </c>
       <c r="T16">
-        <v>0.005581143736485262</v>
+        <v>0.0008604498860969281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.36964133333333</v>
+        <v>16.966758</v>
       </c>
       <c r="N17">
-        <v>76.108924</v>
+        <v>50.900274</v>
       </c>
       <c r="O17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="P17">
-        <v>0.2337290805561597</v>
+        <v>0.1461640017030168</v>
       </c>
       <c r="Q17">
-        <v>2561.456044272363</v>
+        <v>243.409414168946</v>
       </c>
       <c r="R17">
-        <v>23053.10439845127</v>
+        <v>2190.684727520514</v>
       </c>
       <c r="S17">
-        <v>0.0123138665935956</v>
+        <v>0.001143964856709745</v>
       </c>
       <c r="T17">
-        <v>0.0123138665935956</v>
+        <v>0.001143964856709745</v>
       </c>
     </row>
   </sheetData>
